--- a/www/ig/fhir/eclaire/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/www/ig/fhir/eclaire/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:03:24+00:00</t>
+    <t>2023-10-20T12:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +72,12 @@
     <t>No display for ContactDetail</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
     <t>Case Sensitive</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
@@ -129,7 +138,10 @@
     <t>phase-3-phase-4</t>
   </si>
   <si>
-    <t>Phase III and phase IV (Integrated)</t>
+    <t>Phase 3 and phase 4</t>
+  </si>
+  <si>
+    <t>Trials that are a combination of phases 3 and 4.</t>
   </si>
 </sst>
 </file>
@@ -263,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -363,64 +375,74 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -438,29 +460,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/ig/fhir/eclaire/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/www/ig/fhir/eclaire/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T12:15:34+00:00</t>
+    <t>2023-10-24T08:19:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/eclaire/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/www/ig/fhir/eclaire/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:19:05+00:00</t>
+    <t>2024-02-26T13:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,10 +263,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
